--- a/table_overleaf/RQ3_all.xlsx
+++ b/table_overleaf/RQ3_all.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yinghua.li/Documents/Pycharm/NodeRank/table_overleaf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21231990-2A95-C645-852E-FB184B5CC3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A1AEE3-CD68-3140-B438-9EAE46195349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="3740" windowWidth="35840" windowHeight="20800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37300" yWindow="1400" windowWidth="35840" windowHeight="20800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="78">
   <si>
     <t>approach</t>
   </si>
@@ -60,13 +60,208 @@
   </si>
   <si>
     <t>weight</t>
+  </si>
+  <si>
+    <t>CiteSeer</t>
+  </si>
+  <si>
+    <t>Cora</t>
+  </si>
+  <si>
+    <t>LastFM</t>
+  </si>
+  <si>
+    <t>PubMed</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Natural inputs</t>
+  </si>
+  <si>
+    <t>Adversarial inputs</t>
+  </si>
+  <si>
+    <t>Margin</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>DeepGini</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>NodeRank</t>
+  </si>
+  <si>
+    <t>0.722</t>
+  </si>
+  <si>
+    <t>0.737</t>
+  </si>
+  <si>
+    <t>0.709</t>
+  </si>
+  <si>
+    <t>0.779</t>
+  </si>
+  <si>
+    <t>0.784</t>
+  </si>
+  <si>
+    <t>0.813</t>
+  </si>
+  <si>
+    <t>0.667</t>
+  </si>
+  <si>
+    <t>0.661</t>
+  </si>
+  <si>
+    <t>0.624</t>
+  </si>
+  <si>
+    <t>0.687</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.725</t>
+  </si>
+  <si>
+    <t>0.726</t>
+  </si>
+  <si>
+    <t>0.727</t>
+  </si>
+  <si>
+    <t>0.795</t>
+  </si>
+  <si>
+    <t>0.798</t>
+  </si>
+  <si>
+    <t>0.821</t>
+  </si>
+  <si>
+    <t>0.635</t>
+  </si>
+  <si>
+    <t>0.664</t>
+  </si>
+  <si>
+    <t>0.636</t>
+  </si>
+  <si>
+    <t>0.745</t>
+  </si>
+  <si>
+    <t>0.753</t>
+  </si>
+  <si>
+    <t>0.788</t>
+  </si>
+  <si>
+    <t>0.668</t>
+  </si>
+  <si>
+    <t>0.665</t>
+  </si>
+  <si>
+    <t>0.632</t>
+  </si>
+  <si>
+    <t>0.693</t>
+  </si>
+  <si>
+    <t>0.699</t>
+  </si>
+  <si>
+    <t>0.733</t>
+  </si>
+  <si>
+    <t>0.734</t>
+  </si>
+  <si>
+    <t>0.715</t>
+  </si>
+  <si>
+    <t>0.728</t>
+  </si>
+  <si>
+    <t>0.776</t>
+  </si>
+  <si>
+    <t>0.780</t>
+  </si>
+  <si>
+    <t>0.809</t>
+  </si>
+  <si>
+    <t>0.793</t>
+  </si>
+  <si>
+    <t>0.797</t>
+  </si>
+  <si>
+    <t>0.822</t>
+  </si>
+  <si>
+    <t>0.638</t>
+  </si>
+  <si>
+    <t>0.640</t>
+  </si>
+  <si>
+    <t>0.746</t>
+  </si>
+  <si>
+    <t>0.756</t>
+  </si>
+  <si>
+    <t>0.790</t>
+  </si>
+  <si>
+    <t>0.696</t>
+  </si>
+  <si>
+    <t>0.751</t>
+  </si>
+  <si>
+    <t>0.786</t>
+  </si>
+  <si>
+    <t>0.787</t>
+  </si>
+  <si>
+    <t>0.686</t>
+  </si>
+  <si>
+    <t>0.752</t>
+  </si>
+  <si>
+    <t>0.758</t>
+  </si>
+  <si>
+    <t>0.789</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +276,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -118,11 +325,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -141,7 +350,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -461,13 +670,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="323" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="D21" zoomScale="150" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.1640625" customWidth="1"/>
+    <col min="16" max="16" width="15.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -759,7 +973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>5</v>
       </c>
@@ -788,7 +1002,7 @@
         <v>0.50339999999999996</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>6</v>
       </c>
@@ -817,7 +1031,7 @@
         <v>0.70599999999999996</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>7</v>
       </c>
@@ -846,7 +1060,7 @@
         <v>0.70879999999999999</v>
       </c>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>8</v>
       </c>
@@ -875,7 +1089,7 @@
         <v>0.66810000000000003</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>9</v>
       </c>
@@ -904,7 +1118,7 @@
         <v>0.75019999999999998</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>10</v>
       </c>
@@ -933,7 +1147,7 @@
         <v>0.75649999999999995</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -962,7 +1176,7 @@
         <v>0.79220000000000002</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>12</v>
       </c>
@@ -989,6 +1203,340 @@
       </c>
       <c r="K24">
         <v>0.79220000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="G27" s="1"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="G32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="7:19" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="7:19" x14ac:dyDescent="0.2">
+      <c r="G34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="7:19" x14ac:dyDescent="0.2">
+      <c r="G35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" t="s">
+        <v>18</v>
+      </c>
+      <c r="O35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="7:19" x14ac:dyDescent="0.2">
+      <c r="J36" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" t="s">
+        <v>14</v>
+      </c>
+      <c r="L36" t="s">
+        <v>15</v>
+      </c>
+      <c r="M36" t="s">
+        <v>16</v>
+      </c>
+      <c r="N36" t="s">
+        <v>17</v>
+      </c>
+      <c r="O36" t="s">
+        <v>13</v>
+      </c>
+      <c r="P36" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>15</v>
+      </c>
+      <c r="R36" t="s">
+        <v>16</v>
+      </c>
+      <c r="S36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="7:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="I37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="S37" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="7:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="I38" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R38" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="7:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>22</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R39" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="S39" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="7:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="I40" t="s">
+        <v>23</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="R40" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="7:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="I41" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="7:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="I42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="7:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="I43" t="s">
+        <v>26</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
